--- a/data/income_statement/2digits/total/32_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/32_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>32-Other manufacturing</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>32-Other manufacturing</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,95 +841,110 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>12452846.59522</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>9786534.855100002</v>
+        <v>9786534.8551</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>12199428.56163</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>15045363.47747</v>
+        <v>15045967.87989</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>11582804.30085</v>
+        <v>12456417.51019</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>12299347.88481</v>
+        <v>12307462.27884</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>13667346.96848</v>
+        <v>13781992.86876</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>15839559.93928</v>
+        <v>16168462.23987</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>18611812.07657</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>22522180.70698999</v>
+        <v>22537529.52267</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>26382442.47655</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>26592074.39022001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>35279677.291</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>7398571.64449</v>
+        <v>7398571.644489999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>7697153.37761</v>
+        <v>7697153.377610001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>9523099.79559</v>
+        <v>9523099.795589998</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>11304535.61613</v>
+        <v>11305110.34499</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>7666922.236500001</v>
+        <v>8444069.400769999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7943113.30047</v>
+        <v>7949959.48172</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>8841084.374809999</v>
+        <v>8907269.771219999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9195419.487469997</v>
+        <v>9433637.39511</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>11486024.20832</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>13500495.68279</v>
+        <v>13514918.36418</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>15403312.57545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15560805.25968</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>21214356.682</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>4997857.474130001</v>
+        <v>4997857.474129999</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>2025294.20214</v>
@@ -1037,73 +953,83 @@
         <v>2609513.8724</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>3664620.967969999</v>
+        <v>3664624.822429999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>3831139.160490001</v>
+        <v>3927603.733000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>4273938.16564</v>
+        <v>4275202.30691</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>4724002.65161</v>
+        <v>4771712.375120001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>6483233.645489999</v>
+        <v>6572606.696740001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>6915287.785509998</v>
+        <v>6915287.785510001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>8779384.16958</v>
+        <v>8780184.42062</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>10674430.72406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10725890.27986</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>13562814.896</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>56417.47659999999</v>
+        <v>56417.4766</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>64087.27535</v>
+        <v>64087.27535000002</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>66814.89363999998</v>
+        <v>66814.89363999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>76206.89336999999</v>
+        <v>76232.71247</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>84742.90386000002</v>
+        <v>84744.37641999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>82296.41869999999</v>
+        <v>82300.49020999997</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>102259.94206</v>
+        <v>103010.72242</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>160906.80632</v>
+        <v>162218.14802</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>210500.08274</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>242300.85462</v>
+        <v>242426.73787</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>304699.17704</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>305378.8506800001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>502505.713</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>165781.60025</v>
@@ -1115,76 +1041,86 @@
         <v>177937.70851</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>210664.1714</v>
+        <v>210664.1714000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>192738.60226</v>
+        <v>192917.14004</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>242379.96129</v>
+        <v>242404.5996</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>328340.97834</v>
+        <v>328776.76532</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>380756.373</v>
+        <v>382867.43317</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>463489.96014</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>635442.9222200001</v>
+        <v>635502.9608699998</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>753568.7043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>758133.00338</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1013170.352</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>74660.99213</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>70590.74657</v>
+        <v>70590.74656999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>89140.01792</v>
+        <v>89140.01792000001</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>108577.56438</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>88956.69805000001</v>
+        <v>89135.23583000002</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>133137.10021</v>
+        <v>133160.05438</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>134328.54349</v>
+        <v>134614.76071</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>183722.91267</v>
+        <v>184949.27018</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>221608.65537</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>293370.2069</v>
+        <v>293413.51235</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>335999.9312000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>340708.43355</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>582542.284</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>64503.84906000001</v>
+        <v>64503.84905999999</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>74365.24825999999</v>
@@ -1193,19 +1129,19 @@
         <v>82249.8835</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>92179.77595000001</v>
+        <v>92179.77595000002</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>90284.58769000001</v>
+        <v>90284.58769</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>94504.9129</v>
+        <v>94504.91290000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>178693.01467</v>
+        <v>178725.30069</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>176756.08054</v>
+        <v>176810.42377</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>214208.81021</v>
@@ -1214,19 +1150,24 @@
         <v>288549.02805</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>341594.0213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>341402.22341</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>306019.368</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>26616.75906</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>7349.371859999999</v>
+        <v>7349.37186</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>6547.80709</v>
@@ -1238,190 +1179,215 @@
         <v>13497.31652</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>14737.94818</v>
+        <v>14739.63232</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>15319.42018</v>
+        <v>15436.70392</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>20277.37979</v>
+        <v>21107.73922</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>27672.49456000001</v>
+        <v>27672.49456</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>53523.68726999999</v>
+        <v>53540.42046999998</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>75974.75180000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>76022.34642</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>124608.7</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>12287064.99497</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>9634229.48841</v>
+        <v>9634229.488409998</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>12021490.85312</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>14834699.30607</v>
+        <v>14835303.70849</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>11390065.69859</v>
+        <v>12263500.37015</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>12056967.92352</v>
+        <v>12065057.67924</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>13339005.99014</v>
+        <v>13453216.10344</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>15458803.56628</v>
+        <v>15785594.8067</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>18148322.11643</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>21886737.78477</v>
+        <v>21902026.5618</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>25628873.77225001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>25833941.38684</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>34266506.939</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>11144531.07771</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>8404025.093909999</v>
+        <v>8404025.093910001</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>10451317.35757</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>13322673.81054</v>
+        <v>13323179.82623</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>9778982.330050001</v>
+        <v>10619860.93729</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>10184948.41818</v>
+        <v>10192109.31997</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>11157324.62748</v>
+        <v>11253709.57437</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>13166527.20353</v>
+        <v>13370274.56296</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>15223461.51509</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>17936932.28314</v>
+        <v>17949791.24139</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>20815918.63464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>20979306.72607</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>26798056.632</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>4131882.42566</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>4392575.894440001</v>
+        <v>4392575.89444</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>6080195.309680001</v>
+        <v>6080195.309679999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>7529288.206860001</v>
+        <v>7529288.206859998</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>6663940.5076</v>
+        <v>7470129.106780001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>7149703.242670001</v>
+        <v>7151304.916529998</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>7892521.877780001</v>
+        <v>7969969.397709999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>8631563.088800002</v>
+        <v>8832035.4026</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>10404188.70134</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>13109570.1342</v>
+        <v>13113383.61406</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>16256873.71662</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16351305.28155</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>21031785.073</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>6918389.776950001</v>
+        <v>6918389.776950002</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>3885233.40597</v>
+        <v>3885233.405969999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>4224415.847789999</v>
+        <v>4224415.84779</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>5654005.702700001</v>
+        <v>5654511.71839</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2959644.266739999</v>
+        <v>2994330.5222</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2837786.98556</v>
+        <v>2843322.497289999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2663519.976189999</v>
+        <v>2682406.54196</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>4306817.63053</v>
+        <v>4309796.34881</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>4538522.541710001</v>
+        <v>4538522.54171</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4436513.83772</v>
+        <v>4444575.640310001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4040267.031659999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4101221.64689</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5143308.634</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>83421.20559</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>97263.85568000001</v>
+        <v>97263.85567999999</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>119991.04729</v>
@@ -1430,31 +1396,36 @@
         <v>118961.04292</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>130096.09182</v>
+        <v>130099.84442</v>
       </c>
       <c r="H17" s="48" t="n">
         <v>162273.66185</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>562882.1141699998</v>
+        <v>562893.37499</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>194571.37285</v>
+        <v>194867.7002</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>228584.0419</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>327382.2197000001</v>
+        <v>328365.8955</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>414156.4272699999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>422158.33854</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>502046.346</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>10837.66951</v>
@@ -1472,16 +1443,16 @@
         <v>25301.46389</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>35184.5281</v>
+        <v>35208.2443</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>38400.65934000001</v>
+        <v>38440.25971</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>33575.11135</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>52166.23014</v>
+        <v>52166.23013999999</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>63466.09151999999</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>104621.45909</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>120916.579</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1142533.91726</v>
@@ -1505,37 +1481,42 @@
         <v>1570173.49555</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1512025.49553</v>
+        <v>1512123.88226</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1611083.36854</v>
+        <v>1643639.43286</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1872019.50534</v>
+        <v>1872948.35927</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2181681.36266</v>
+        <v>2199506.52907</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2292276.362749999</v>
+        <v>2415320.243740001</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2924860.60134</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3949805.50163</v>
+        <v>3952235.320409999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4812955.13761</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4854634.660770001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7468450.307</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>746294.3319900001</v>
+        <v>746294.33199</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>854320.15422</v>
@@ -1544,34 +1525,39 @@
         <v>1024072.38582</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1061992.82583</v>
+        <v>1062068.86082</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1179751.22883</v>
+        <v>1190881.36836</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1281269.2616</v>
+        <v>1282286.72252</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1457874.49355</v>
+        <v>1468255.4062</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1592540.31106</v>
+        <v>1668996.8432</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1914161.72215</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2300272.92218</v>
+        <v>2307067.1585</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2896055.340760001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2926343.990100001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3338587.639</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>10544.03784</v>
@@ -1583,112 +1569,127 @@
         <v>14835.94535</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>44210.84699</v>
+        <v>44210.84699000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>18285.24681</v>
+        <v>18311.15076</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>19133.96093</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>28926.13813</v>
+        <v>28935.47751</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>29608.24207</v>
+        <v>30688.85965</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>37673.25556000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>55022.76885</v>
+        <v>55206.44321</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>76522.56386999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>76574.02999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>105520.895</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>281035.72785</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>328896.05071</v>
+        <v>328896.0507100001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>416586.3920199999</v>
+        <v>416586.3920200001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>410901.7763599999</v>
+        <v>410911.46381</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>508608.9779899999</v>
+        <v>516648.47939</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>558845.0586600001</v>
+        <v>559002.8551499998</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>644004.1809700001</v>
+        <v>648842.02252</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>666154.9092499999</v>
+        <v>722212.78999</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>851707.6661800001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1040614.67394</v>
+        <v>1041227.32593</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1309787.82081</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1315249.85768</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1453387.834</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>454714.5663</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>514091.9215500001</v>
+        <v>514091.92155</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>592650.0484499999</v>
+        <v>592650.04845</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>606880.2024799999</v>
+        <v>606946.5500199998</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>652857.00403</v>
+        <v>655921.73821</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>703290.2420099999</v>
+        <v>704149.9064399999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>784944.17445</v>
+        <v>790477.90617</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>896777.1597399998</v>
+        <v>916095.1935599998</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1024780.80041</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1204635.47939</v>
+        <v>1210633.38936</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1509744.95608</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1534520.10243</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1779678.91</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>396239.58527</v>
@@ -1697,37 +1698,42 @@
         <v>375884.24028</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>546101.1097299999</v>
+        <v>546101.10973</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>450032.6697</v>
+        <v>450055.02144</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>431332.13971</v>
+        <v>452758.0644999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>590750.2437400001</v>
+        <v>590661.6367499999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>723806.86911</v>
+        <v>731251.1228700001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>699736.0516900001</v>
+        <v>746323.4005400001</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1010698.87919</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1649532.57945</v>
+        <v>1645168.16191</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1916899.79685</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1928290.67067</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>4129862.668</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>264775.84335</v>
@@ -1742,31 +1748,36 @@
         <v>224003.41275</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>371247.7210699999</v>
+        <v>375786.44514</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>390427.75271</v>
+        <v>390447.42633</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>803259.8750000001</v>
+        <v>806761.5859300001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>654844.62493</v>
+        <v>667581.89576</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>792034.0858</v>
+        <v>792034.0858000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2582728.54205</v>
+        <v>2587404.95151</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1214920.66576</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1242190.10029</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2564509.767</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1032.91663</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1805.57431</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>5247.301</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>129.77808</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>305.737</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>12772.49271</v>
@@ -1859,31 +1880,36 @@
         <v>17457.65405</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>18272.13582</v>
+        <v>18349.59522000001</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>22072.79367</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>28833.56454</v>
+        <v>28945.24356</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>25073.25038</v>
+        <v>29015.09301000001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>37226.61442000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>51058.3455</v>
+        <v>51237.36583</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>69111.87003999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>70972.79783</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>117928.637</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>2616.7275</v>
@@ -1901,7 +1927,7 @@
         <v>139.91442</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>778.6855700000002</v>
+        <v>778.6855700000001</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>3577.34062</v>
@@ -1916,13 +1942,18 @@
         <v>3441.97105</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>2704.37404</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2806.91155</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>14773.41</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>14899.43853</v>
@@ -1937,19 +1968,19 @@
         <v>1734.57588</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2812.995960000001</v>
+        <v>2963.076420000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2870.160809999999</v>
+        <v>2870.16081</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5872.027139999999</v>
+        <v>5874.027139999998</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2179.15839</v>
+        <v>2190.15839</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>4011.92646</v>
+        <v>4011.926460000001</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>5520.00922</v>
@@ -1957,17 +1988,22 @@
       <c r="M30" s="48" t="n">
         <v>5653.05699</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>8057.889</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>544.76863</v>
+        <v>544.7686299999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>486.4587599999999</v>
+        <v>486.45876</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>500.87335</v>
@@ -1976,34 +2012,39 @@
         <v>341.55983</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>734.1639900000001</v>
+        <v>861.2598000000002</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>787.6697800000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>870.3584499999999</v>
+        <v>870.42654</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>7525.545520000001</v>
+        <v>7526.497629999999</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>1652.25609</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>13184.18906</v>
+        <v>13199.18906</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>8858.572920000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2451.58847</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>4646.493</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>180763.8846900001</v>
+        <v>180763.88469</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>132614.42647</v>
@@ -2015,31 +2056,36 @@
         <v>134706.40897</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>266105.04683</v>
+        <v>268181.03745</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>269714.6274699999</v>
+        <v>269729.90669</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>636100.1042500002</v>
+        <v>639118.93085</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>448005.14384</v>
+        <v>454156.69361</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>516895.04989</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2014793.17522</v>
+        <v>2018730.78994</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>820499.0933700001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>832849.32172</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1819206.509</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2999.53955</v>
@@ -2048,7 +2094,7 @@
         <v>3546.86186</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>6422.761630000001</v>
+        <v>6422.761629999999</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>1545.93517</v>
@@ -2072,13 +2118,18 @@
         <v>3719.81563</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>3881.65767</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>3882.88433</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>5778.893</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>19783.86715</v>
@@ -2093,31 +2144,36 @@
         <v>20058.64038</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>34540.86866000001</v>
+        <v>34540.86865999999</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>40400.57754</v>
+        <v>40400.57754000001</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>54419.69811</v>
+        <v>54432.31238999999</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>68485.31692999999</v>
+        <v>68492.26459000001</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>120554.08434</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>331492.3977499999</v>
+        <v>332029.27188</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>113983.74512</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>132032.51726</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>337090.486</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>29362.20796</v>
@@ -2132,34 +2188,39 @@
         <v>46984.89526</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>45932.53724000001</v>
+        <v>48040.63502000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>50266.89363</v>
+        <v>50271.28803</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>71254.72325999998</v>
+        <v>71611.24619999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>75946.45422</v>
+        <v>78571.43288000002</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>106695.5466</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>157672.19626</v>
+        <v>157680.09654</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>188292.94322</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>189605.66975</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>251474.412</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>260976.71199</v>
+        <v>260976.7119900001</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>200358.62761</v>
@@ -2171,34 +2232,39 @@
         <v>176003.42254</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>289779.7084400001</v>
+        <v>299895.64598</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>357440.3526399999</v>
+        <v>357480.85187</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>719697.02276</v>
+        <v>723596.65801</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>632693.5782100002</v>
+        <v>637745.32452</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>738012.3540200001</v>
+        <v>738012.35402</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2614374.69634</v>
+        <v>2626157.24962</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1084819.06844</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1111851.38935</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2418228.851</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>6514.807869999999</v>
+        <v>6514.807870000001</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>5306.97706</v>
@@ -2207,16 +2273,16 @@
         <v>5297.94305</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>5973.7052</v>
+        <v>5973.705199999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>5928.18226</v>
+        <v>5934.918890000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>6985.094430000001</v>
+        <v>6985.09443</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>9272.838369999999</v>
+        <v>9272.838370000001</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>19328.24892</v>
@@ -2225,16 +2291,21 @@
         <v>11787.33134</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>17206.30601</v>
+        <v>17206.33451</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>20111.86534</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>20112.89029</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>21762.252</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>10228.88514</v>
@@ -2249,31 +2320,36 @@
         <v>13220.59522</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>12378.46031</v>
+        <v>12916.49681</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>14470.31442</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>30297.60659</v>
+        <v>30420.23746</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>25215.91286</v>
+        <v>26343.35701</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>19375.92011</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>36310.13312</v>
+        <v>42810.94872000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>24431.60334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>24431.60334000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>33706.143</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>524.12812</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>111.75747</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>444.89</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>200127.34807</v>
@@ -2327,37 +2408,42 @@
         <v>104706.91326</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>190452.10493</v>
+        <v>195006.67082</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>263453.80363</v>
+        <v>263494.15286</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>587254.784</v>
+        <v>591008.32438</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>500370.5738599999</v>
+        <v>504283.30753</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>557986.7609300001</v>
+        <v>557986.76093</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2131390.70906</v>
+        <v>2135511.25493</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>868819.54625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>874006.5460999998</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1844467.154</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>3105.34703</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>3668.685440000001</v>
+        <v>3668.68544</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>4203.032450000001</v>
@@ -2384,13 +2470,18 @@
         <v>4596.14224</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>5365.890090000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>6451.090270000001</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>7191.527</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>32088.75023</v>
@@ -2405,37 +2496,42 @@
         <v>29109.68733</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>41881.13307</v>
+        <v>46895.0053</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>54388.1799</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>57278.74496</v>
+        <v>57288.1226</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>64227.04803</v>
+        <v>64235.17305</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>120775.15878</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>367463.23722</v>
+        <v>368381.23669</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>133746.44682</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>155180.6722</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>474530.493</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>8387.445529999999</v>
+        <v>8387.445530000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>9079.761460000002</v>
+        <v>9079.76146</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>8666.251890000001</v>
@@ -2444,31 +2540,36 @@
         <v>21454.8989</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>29742.75661</v>
+        <v>29745.4829</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>13673.139</v>
+        <v>13673.289</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>32944.07904</v>
+        <v>32958.1654</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>20649.40501</v>
+        <v>20652.84848</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>25771.77254999999</v>
+        <v>25771.77255</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>57082.42631999999</v>
+        <v>57325.59015999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>32231.95913</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>31556.82968</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>36126.392</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>190513.37849</v>
@@ -2480,34 +2581,39 @@
         <v>287813.96468</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>206129.03826</v>
+        <v>206130.84895</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>223807.7204400001</v>
+        <v>238272.5003200001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>261253.66481</v>
+        <v>261319.72324</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>370035.9165700001</v>
+        <v>372811.30642</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>418250.4591800001</v>
+        <v>419469.26091</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>538066.7795800001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>977445.7369400001</v>
+        <v>978504.9946300001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>947265.3151299998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>953022.6967099999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1332975.266</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>187917.01221</v>
@@ -2519,40 +2625,45 @@
         <v>258415.39584</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>190236.90483</v>
+        <v>190238.71552</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>213667.14722</v>
+        <v>228131.9271</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>254210.63676</v>
+        <v>254276.69519</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>354071.6586</v>
+        <v>356847.04845</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>382276.7889</v>
+        <v>383495.59063</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>489441.0491600001</v>
+        <v>489441.04916</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>922599.7202400001</v>
+        <v>923658.9779299999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>896414.6391</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>902172.02068</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1239996.837</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>2596.36628</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>3736.62575</v>
+        <v>3736.625750000001</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>29398.56884</v>
@@ -2564,7 +2675,7 @@
         <v>10140.57322</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>7043.02805</v>
+        <v>7043.028050000001</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>15964.25797</v>
@@ -2573,19 +2684,24 @@
         <v>35973.67027999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>48625.73041999999</v>
+        <v>48625.73042</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>54846.01670000001</v>
+        <v>54846.01669999999</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>50850.67603</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>92978.429</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>209525.33814</v>
@@ -2597,34 +2713,39 @@
         <v>272941.2711</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>291903.62165</v>
+        <v>291924.1626999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>288992.4319</v>
+        <v>290376.36334</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>362483.979</v>
+        <v>362308.4879699999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>437333.80478</v>
+        <v>441604.74437</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>303636.63923</v>
+        <v>356690.71087</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>526653.8313899999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>640440.68822</v>
+        <v>627910.86917</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1099736.07904</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1105606.6849</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2943168.318</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>29274.71431</v>
@@ -2639,55 +2760,60 @@
         <v>65055.59622000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>123687.06433</v>
+        <v>123916.23303</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>64553.03995000001</v>
+        <v>64572.69992</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>118941.27925</v>
+        <v>119212.60905</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>74223.70722999999</v>
+        <v>74744.07381</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>112037.71125</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>144299.93497</v>
+        <v>152806.95025</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>214270.56555</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>229050.46746</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>339954.263</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>268.40838</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>930.22855</v>
+        <v>930.2285499999999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>443.08849</v>
+        <v>443.0884899999999</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>834.90763</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>549.54111</v>
+        <v>549.54641</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>541.21935</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2403.215029999999</v>
+        <v>2403.21503</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>944.59797</v>
+        <v>944.5979699999999</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>866.9175500000001</v>
@@ -2696,13 +2822,18 @@
         <v>1148.29456</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3359.07798</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3360.465369999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5647.587</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>29006.30593</v>
@@ -2717,73 +2848,83 @@
         <v>64220.68859000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>123137.52322</v>
+        <v>123366.68662</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>64011.82059999999</v>
+        <v>64031.48056999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>116538.06422</v>
+        <v>116809.39402</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>73279.10926000001</v>
+        <v>73799.47584</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>111170.7937</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>143151.64041</v>
+        <v>151658.65569</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>210911.48757</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>225690.00209</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>334306.676</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>51302.01582000001</v>
+        <v>51302.01582</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>35273.47758000001</v>
+        <v>35273.47758</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>239558.67591</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>51738.04974999999</v>
+        <v>51738.04975</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>61322.06513</v>
+        <v>61449.73523000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>102839.3915</v>
+        <v>104150.2849</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>78897.02959000001</v>
+        <v>79308.92682000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>227516.58279</v>
+        <v>228212.92781</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>80000.49588</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>282838.1354300001</v>
+        <v>283406.09841</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>152305.22216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>156322.37317</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>240304.95</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>3498.92888</v>
+        <v>3498.928879999999</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>5053.373280000001</v>
@@ -2792,34 +2933,39 @@
         <v>5797.38814</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>5682.442809999999</v>
+        <v>5682.44281</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>6853.67029</v>
+        <v>6853.670290000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>6395.08535</v>
+        <v>6395.085349999999</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>20925.61641</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>13120.75309</v>
+        <v>13203.20189</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>8830.39235</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>10363.48809</v>
+        <v>10457.08481</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>23211.12288</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>23317.70693</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>27979.524</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1209.67929</v>
@@ -2834,34 +2980,39 @@
         <v>2187.78126</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2721.02032</v>
+        <v>2721.020319999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>6327.6474</v>
+        <v>6327.647400000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4966.4293</v>
+        <v>4966.429300000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>9540.836210000001</v>
+        <v>9540.093449999998</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>3812.36893</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>14239.31289</v>
+        <v>14255.65982</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>7737.27041</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>7738.41518</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>7770.032</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>46593.40764999999</v>
+        <v>46593.40765000001</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>28861.97936</v>
@@ -2870,34 +3021,39 @@
         <v>224190.6776</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>43867.82567999999</v>
+        <v>43867.82568</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>51747.37452</v>
+        <v>51875.04461999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>90116.65875000002</v>
+        <v>91427.55215</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>53004.98387999999</v>
+        <v>53416.88111000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>204854.9934900001</v>
+        <v>205469.63247</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>67357.7346</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>258235.33445</v>
+        <v>258693.35378</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>121356.82887</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>125266.25106</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>204555.394</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>187498.03663</v>
@@ -2909,73 +3065,83 @@
         <v>100854.16893</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>305221.16812</v>
+        <v>305241.70917</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>351357.4311</v>
+        <v>352842.86114</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>324197.62745</v>
+        <v>322730.9029900001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>477378.05444</v>
+        <v>481508.4265999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>150343.76367</v>
+        <v>203221.8568700001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>558691.0467599999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>501902.48776</v>
+        <v>497311.72101</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1161701.42243</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1178334.77919</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3042817.631</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>53329.35139</v>
+        <v>53329.35139000001</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>53852.04463</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>70622.27357</v>
+        <v>70622.27356999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>71286.21866999999</v>
+        <v>71286.21867</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>75955.15074</v>
+        <v>76311.65316</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>83649.65309000001</v>
+        <v>83654.7693</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>93672.55537</v>
+        <v>94468.80739000002</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>87173.99712000001</v>
+        <v>97783.39461000002</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>110133.19126</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>165205.95079</v>
+        <v>165261.80083</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>200143.48958</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>203237.56868</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>449244.411</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>134168.68524</v>
@@ -2984,34 +3150,37 @@
         <v>157016.48831</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>30231.89535999999</v>
+        <v>30231.89536000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>233934.94945</v>
+        <v>233955.4904999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>275402.28036</v>
+        <v>276531.20798</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>240547.9743600001</v>
+        <v>239076.13369</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>383705.49907</v>
+        <v>387039.61921</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>63169.76655000002</v>
+        <v>105438.46226</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>448557.8554999999</v>
+        <v>448557.8555</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>336696.5369699999</v>
+        <v>332049.92018</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>961557.9328499999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>975097.2105100001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2593573.22</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>5468</v>
@@ -3041,31 +3213,34 @@
         <v>5296</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4778</v>
+        <v>4781</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4005</v>
+        <v>4013</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3669</v>
+        <v>3676</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3653</v>
+        <v>3686</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3590</v>
+        <v>3626</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>3681</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3442</v>
+        <v>3802</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3578</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4019</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>